--- a/Invasion Meta/Paper list-- facilitated invasion meta.xlsx
+++ b/Invasion Meta/Paper list-- facilitated invasion meta.xlsx
@@ -6308,8 +6308,8 @@
   </sheetPr>
   <dimension ref="A1:N594"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="E269" sqref="E269"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16055,7 +16055,7 @@
       <c r="D263" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="E263" s="2" t="s">
+      <c r="E263" s="6" t="s">
         <v>930</v>
       </c>
       <c r="F263" s="2" t="s">
@@ -16093,7 +16093,7 @@
       <c r="D264" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="E264" s="2" t="s">
+      <c r="E264" s="6" t="s">
         <v>933</v>
       </c>
       <c r="F264" s="2" t="s">
@@ -16129,7 +16129,7 @@
       <c r="D265" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="E265" s="2" t="s">
+      <c r="E265" s="6" t="s">
         <v>937</v>
       </c>
       <c r="F265" s="2" t="s">
@@ -16167,7 +16167,7 @@
       <c r="D266" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="E266" s="2" t="s">
+      <c r="E266" s="6" t="s">
         <v>940</v>
       </c>
       <c r="F266" s="2" t="s">
@@ -16205,7 +16205,7 @@
       <c r="D267" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="E267" s="2" t="s">
+      <c r="E267" s="6" t="s">
         <v>943</v>
       </c>
       <c r="F267" s="2" t="s">
@@ -16241,7 +16241,7 @@
       <c r="D268" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="E268" s="2" t="s">
+      <c r="E268" s="6" t="s">
         <v>946</v>
       </c>
       <c r="F268" s="2" t="s">
